--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_2.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_2.xlsx
@@ -488,926 +488,926 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_4</t>
+          <t>model_2_2_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9633747664556568</v>
+        <v>0.9234455418515966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7460780236760411</v>
+        <v>0.7482163718002635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8192570541400385</v>
+        <v>0.8407719365963975</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9760902115491368</v>
+        <v>0.9156384779754697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9505557933312816</v>
+        <v>0.9042910138004283</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1537082642316818</v>
+        <v>0.321282684803009</v>
       </c>
       <c r="H2" t="n">
-        <v>1.697977423667908</v>
+        <v>1.683678388595581</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8175829648971558</v>
+        <v>0.9500329494476318</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0930488333106041</v>
+        <v>0.9445546865463257</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455315887928009</v>
+        <v>0.9472939968109131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_5</t>
+          <t>model_2_2_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9628100673579264</v>
+        <v>0.9236085389717591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7460613819426682</v>
+        <v>0.7482159401337474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8137448810296926</v>
+        <v>0.8398789878809655</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9762470668179747</v>
+        <v>0.9145939989249507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9492350782770202</v>
+        <v>0.9034311170647008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1560782045125961</v>
+        <v>0.3205986022949219</v>
       </c>
       <c r="H3" t="n">
-        <v>1.698088645935059</v>
+        <v>1.683681011199951</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8425170183181763</v>
+        <v>0.9553607702255249</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09243840724229813</v>
+        <v>0.9562491774559021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.467477947473526</v>
+        <v>0.9558049440383911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_3</t>
+          <t>model_2_2_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9639319139299358</v>
+        <v>0.9236471222989465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7460492808428663</v>
+        <v>0.7481798816921362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8252662833865595</v>
+        <v>0.8390200436063276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9758786979909463</v>
+        <v>0.9135958123811834</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9519870373877207</v>
+        <v>0.9026076496652898</v>
       </c>
       <c r="G4" t="n">
-        <v>0.151370033621788</v>
+        <v>0.3204366564750671</v>
       </c>
       <c r="H4" t="n">
-        <v>1.698169708251953</v>
+        <v>1.683922290802002</v>
       </c>
       <c r="I4" t="n">
-        <v>0.790400505065918</v>
+        <v>0.9604856371879578</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09387197345495224</v>
+        <v>0.9674254059791565</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4421360492706299</v>
+        <v>0.9639553427696228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_6</t>
+          <t>model_2_2_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9622506407913257</v>
+        <v>0.9231160857955467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7460119303579424</v>
+        <v>0.748168001614698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8086990899979543</v>
+        <v>0.841688222805306</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9763620779213737</v>
+        <v>0.9167179843373632</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9480201282196286</v>
+        <v>0.9051777995234469</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1584259867668152</v>
+        <v>0.3226653337478638</v>
       </c>
       <c r="H5" t="n">
-        <v>1.698419332504272</v>
+        <v>1.684001922607422</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8653414845466614</v>
+        <v>0.9445659518241882</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09199082106351852</v>
+        <v>0.9324679970741272</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4786660075187683</v>
+        <v>0.9385168552398682</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_2</t>
+          <t>model_2_2_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9644640905043642</v>
+        <v>0.9235943175617548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7459592521507064</v>
+        <v>0.7481185960913597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8318022171523732</v>
+        <v>0.8382018748938698</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9755956926207067</v>
+        <v>0.9126513379748875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9535324975705801</v>
+        <v>0.901826796347089</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1491366028785706</v>
+        <v>0.3206582963466644</v>
       </c>
       <c r="H6" t="n">
-        <v>1.698771715164185</v>
+        <v>1.684332132339478</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7608354687690735</v>
+        <v>0.9653671979904175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09497333317995071</v>
+        <v>0.9780001640319824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4279043972492218</v>
+        <v>0.9716839790344238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_7</t>
+          <t>model_2_2_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9617057732761544</v>
+        <v>0.9225665646229261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7459394631444725</v>
+        <v>0.7480538484395858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8040888027389684</v>
+        <v>0.8426118402722813</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9764452603162441</v>
+        <v>0.9178161828451685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9469053677876353</v>
+        <v>0.9060773201319422</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1607126593589783</v>
+        <v>0.3249715566635132</v>
       </c>
       <c r="H7" t="n">
-        <v>1.698904037475586</v>
+        <v>1.684764981269836</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8861958980560303</v>
+        <v>0.9390552043914795</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09166710078716278</v>
+        <v>0.9201719760894775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4889315068721771</v>
+        <v>0.9296137690544128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_8</t>
+          <t>model_2_2_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.961181887977072</v>
+        <v>0.9234758426096641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7458515913239251</v>
+        <v>0.748040103921533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7998832344434597</v>
+        <v>0.83742836094571</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9765041610134811</v>
+        <v>0.9117646328799194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9458848797401899</v>
+        <v>0.9010921371315921</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1629112958908081</v>
+        <v>0.321155458688736</v>
       </c>
       <c r="H8" t="n">
-        <v>1.699491739273071</v>
+        <v>1.68485701084137</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9052196145057678</v>
+        <v>0.969982385635376</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09143788367509842</v>
+        <v>0.9879282116889954</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4983288645744324</v>
+        <v>0.9789552688598633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_1</t>
+          <t>model_2_2_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9649479701989997</v>
+        <v>0.9233118958001681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.745787928593724</v>
+        <v>0.7479506250133062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8388918585363725</v>
+        <v>0.836701937579853</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9752198244657485</v>
+        <v>0.9109378744085403</v>
       </c>
       <c r="F9" t="n">
-        <v>0.955194339887015</v>
+        <v>0.9004055591712126</v>
       </c>
       <c r="G9" t="n">
-        <v>0.147105872631073</v>
+        <v>0.3218435645103455</v>
       </c>
       <c r="H9" t="n">
-        <v>1.699917316436768</v>
+        <v>1.685455322265625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7287657856941223</v>
+        <v>0.9743165969848633</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09643608331680298</v>
+        <v>0.9971850514411926</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4126010239124298</v>
+        <v>0.9857508540153503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_9</t>
+          <t>model_2_2_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9606832726336338</v>
+        <v>0.9231178270710809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7457541784672175</v>
+        <v>0.7478548615161407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7960524140879638</v>
+        <v>0.8360229418772972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9765445745104707</v>
+        <v>0.9101709980132904</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9449525606692849</v>
+        <v>0.899767191847029</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1650038957595825</v>
+        <v>0.3226580321788788</v>
       </c>
       <c r="H10" t="n">
-        <v>1.700143098831177</v>
+        <v>1.686095714569092</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9225481748580933</v>
+        <v>0.978367805480957</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09128060936927795</v>
+        <v>1.005771398544312</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5069142580032349</v>
+        <v>0.9920691847801208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_10</t>
+          <t>model_2_2_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9602125829093335</v>
+        <v>0.921729113366127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7456516890061933</v>
+        <v>0.7478523398051505</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7925673901239254</v>
+        <v>0.8435196088837578</v>
       </c>
       <c r="E11" t="n">
-        <v>0.976571114896933</v>
+        <v>0.9189106588942971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9441022065431268</v>
+        <v>0.9069699871541771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1669792532920837</v>
+        <v>0.3284861743450165</v>
       </c>
       <c r="H11" t="n">
-        <v>1.700828313827515</v>
+        <v>1.686112523078918</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9383125305175781</v>
+        <v>0.9336390495300293</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0911773219704628</v>
+        <v>0.9079176187515259</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5147448778152466</v>
+        <v>0.9207783937454224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_11</t>
+          <t>model_2_2_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.959771226484088</v>
+        <v>0.9229055695438791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7455474455538107</v>
+        <v>0.7477563956002209</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7894006910842791</v>
+        <v>0.8353913782086227</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9765872269530287</v>
+        <v>0.9094630554454005</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9433278434464849</v>
+        <v>0.8991763657648644</v>
       </c>
       <c r="G12" t="n">
-        <v>0.168831542134285</v>
+        <v>0.3235488533973694</v>
       </c>
       <c r="H12" t="n">
-        <v>1.701525449752808</v>
+        <v>1.68675422668457</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9526369571685791</v>
+        <v>0.9821360111236572</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09111461788415909</v>
+        <v>1.013697862625122</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5218757390975952</v>
+        <v>0.9979169964790344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_0</t>
+          <t>model_2_2_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9653528994435309</v>
+        <v>0.9226839797024113</v>
       </c>
       <c r="C13" t="n">
-        <v>0.745510274439118</v>
+        <v>0.7476578672297505</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8465589870524708</v>
+        <v>0.8348056266494944</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9747234757857808</v>
+        <v>0.9088116870626703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.956972576514791</v>
+        <v>0.8986314130849955</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1454064697027206</v>
+        <v>0.3244787454605103</v>
       </c>
       <c r="H13" t="n">
-        <v>1.701773881912231</v>
+        <v>1.687412977218628</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6940838694572449</v>
+        <v>0.9856309294700623</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09836770594120026</v>
+        <v>1.020990967750549</v>
       </c>
       <c r="K13" t="n">
-        <v>0.396225780248642</v>
+        <v>1.003310680389404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_12</t>
+          <t>model_2_2_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9593596320989479</v>
+        <v>0.9224599725850939</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7454439222836479</v>
+        <v>0.7475612268658622</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7865260928253947</v>
+        <v>0.8342644877878297</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9765955184045009</v>
+        <v>0.9082146090828013</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9426235692464811</v>
+        <v>0.8981305749775155</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1705589294433594</v>
+        <v>0.3254189193248749</v>
       </c>
       <c r="H14" t="n">
-        <v>1.702217817306519</v>
+        <v>1.688059210777283</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9656400680541992</v>
+        <v>0.9888596534729004</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09108234941959381</v>
+        <v>1.027676105499268</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5283612012863159</v>
+        <v>1.008267879486084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_13</t>
+          <t>model_2_2_4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9589775100954376</v>
+        <v>0.9205168409437692</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7453428591450619</v>
+        <v>0.7475356202476875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.783918610971172</v>
+        <v>0.8443784293382973</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9765981771635812</v>
+        <v>0.9199693689961679</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9419837103927833</v>
+        <v>0.9078276587000186</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1721626222133636</v>
+        <v>0.3335738480091095</v>
       </c>
       <c r="H15" t="n">
-        <v>1.702893495559692</v>
+        <v>1.688230514526367</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9774348735809326</v>
+        <v>0.928514838218689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09107200801372528</v>
+        <v>0.8960638046264648</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5342534780502319</v>
+        <v>0.9122895002365112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_14</t>
+          <t>model_2_2_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9586242168443708</v>
+        <v>0.9222383281462764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7452455910340517</v>
+        <v>0.7474678075433661</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7815559315976541</v>
+        <v>0.8337659870579278</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9765965987796466</v>
+        <v>0.9076683232996325</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9414030874544344</v>
+        <v>0.89767133697997</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1736453026533127</v>
+        <v>0.3263491094112396</v>
       </c>
       <c r="H16" t="n">
-        <v>1.703543901443481</v>
+        <v>1.688683986663818</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9881224036216736</v>
+        <v>0.9918339252471924</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09107814729213715</v>
+        <v>1.033792614936829</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5396002531051636</v>
+        <v>1.012813210487366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_15</t>
+          <t>model_2_2_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9582986365034387</v>
+        <v>0.9220227286035459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7451528862266565</v>
+        <v>0.7473786068928725</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7794163112545014</v>
+        <v>0.8333078035256067</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9765921819729609</v>
+        <v>0.907169911768706</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9408766446411343</v>
+        <v>0.8972513291132842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1750116795301437</v>
+        <v>0.3272539079189301</v>
       </c>
       <c r="H17" t="n">
-        <v>1.704163789749146</v>
+        <v>1.68928050994873</v>
       </c>
       <c r="I17" t="n">
-        <v>0.997800886631012</v>
+        <v>0.9945676326751709</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09109533578157425</v>
+        <v>1.03937304019928</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5444480776786804</v>
+        <v>1.01697039604187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_16</t>
+          <t>model_2_2_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9579994239768799</v>
+        <v>0.9218155652428267</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7450652857338076</v>
+        <v>0.7472941752106282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7774799260474425</v>
+        <v>0.8328875282207115</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9765856892521761</v>
+        <v>0.9067159082248721</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9403996859428854</v>
+        <v>0.8968678454780553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1762674301862717</v>
+        <v>0.3281233310699463</v>
       </c>
       <c r="H18" t="n">
-        <v>1.704749703407288</v>
+        <v>1.689844965934753</v>
       </c>
       <c r="I18" t="n">
-        <v>1.006560087203979</v>
+        <v>0.9970752000808716</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09112060070037842</v>
+        <v>1.044456362724304</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5488402247428894</v>
+        <v>1.020765900611877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_17</t>
+          <t>model_2_2_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.957725114861656</v>
+        <v>0.9216186029120202</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7449830921241472</v>
+        <v>0.7472148395043328</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7757284674950902</v>
+        <v>0.8325031022877805</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9765777994264849</v>
+        <v>0.9063031025965083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9399678480670171</v>
+        <v>0.8965185004753835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1774186491966248</v>
+        <v>0.3289499580860138</v>
       </c>
       <c r="H19" t="n">
-        <v>1.705299258232117</v>
+        <v>1.690375566482544</v>
       </c>
       <c r="I19" t="n">
-        <v>1.014482617378235</v>
+        <v>0.9993689060211182</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09115131199359894</v>
+        <v>1.049078226089478</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5528169274330139</v>
+        <v>1.024223566055298</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_18</t>
+          <t>model_2_2_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9574742254842304</v>
+        <v>0.9214327210371818</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7449063721293627</v>
+        <v>0.7471407560106711</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7741452858570941</v>
+        <v>0.8321518111282284</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9765691757497837</v>
+        <v>0.9059281577133848</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9395771756524225</v>
+        <v>0.8962005202690377</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1784715801477432</v>
+        <v>0.3297300338745117</v>
       </c>
       <c r="H20" t="n">
-        <v>1.705812335014343</v>
+        <v>1.690871000289917</v>
       </c>
       <c r="I20" t="n">
-        <v>1.021644115447998</v>
+        <v>1.00146484375</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09118486940860748</v>
+        <v>1.053276419639587</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5564144849777222</v>
+        <v>1.027370810508728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_19</t>
+          <t>model_2_2_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9572451059786855</v>
+        <v>0.9212585329817569</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7448351161091802</v>
+        <v>0.7470719031431776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7727144829583126</v>
+        <v>0.8318312776146993</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9765601627718825</v>
+        <v>0.9055881216937194</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9392238417606538</v>
+        <v>0.8959115925133326</v>
       </c>
       <c r="G21" t="n">
-        <v>0.179433137178421</v>
+        <v>0.3304611146450043</v>
       </c>
       <c r="H21" t="n">
-        <v>1.706288814544678</v>
+        <v>1.691331386566162</v>
       </c>
       <c r="I21" t="n">
-        <v>1.028116345405579</v>
+        <v>1.003377318382263</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0912199467420578</v>
+        <v>1.057083606719971</v>
       </c>
       <c r="K21" t="n">
-        <v>0.559668242931366</v>
+        <v>1.030230522155762</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_20</t>
+          <t>model_2_2_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9570362864898134</v>
+        <v>0.9188174535917105</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7447692148462612</v>
+        <v>0.7470666910197457</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7714223828839309</v>
+        <v>0.8451416672524181</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9765510355822106</v>
+        <v>0.9209459268173088</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9389045758907411</v>
+        <v>0.9086100661260934</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1803095042705536</v>
+        <v>0.3407057821750641</v>
       </c>
       <c r="H22" t="n">
-        <v>1.706729412078857</v>
+        <v>1.691366195678711</v>
       </c>
       <c r="I22" t="n">
-        <v>1.033961057662964</v>
+        <v>0.9239610433578491</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09125546365976334</v>
+        <v>0.8851298093795776</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5626082420349121</v>
+        <v>0.9045455455780029</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_21</t>
+          <t>model_2_2_24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.956846160202719</v>
+        <v>0.9210961821619508</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7447084382738194</v>
+        <v>0.7470082215780102</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7702555215635392</v>
+        <v>0.831539532956902</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9765419974166951</v>
+        <v>0.9052798776271721</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9386160608264946</v>
+        <v>0.8956493376785172</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1811074465513229</v>
+        <v>0.3311424553394318</v>
       </c>
       <c r="H23" t="n">
-        <v>1.707135915756226</v>
+        <v>1.691757321357727</v>
       </c>
       <c r="I23" t="n">
-        <v>1.039239287376404</v>
+        <v>1.005118012428284</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09129063785076141</v>
+        <v>1.060534834861755</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5652650594711304</v>
+        <v>1.03282618522644</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_22</t>
+          <t>model_2_2_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9566733265636654</v>
+        <v>0.9164811139293843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7446525841449712</v>
+        <v>0.7463943953592909</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7692024493944482</v>
+        <v>0.8457446107034176</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9765331895293907</v>
+        <v>0.9217654306865258</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9383555693659219</v>
+        <v>0.9092553310025804</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1818327754735947</v>
+        <v>0.3505108952522278</v>
       </c>
       <c r="H24" t="n">
-        <v>1.707509398460388</v>
+        <v>1.69586181640625</v>
       </c>
       <c r="I24" t="n">
-        <v>1.044002771377563</v>
+        <v>0.9203635454177856</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09132491052150726</v>
+        <v>0.8759541511535645</v>
       </c>
       <c r="K24" t="n">
-        <v>0.567663848400116</v>
+        <v>0.8981589078903198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_23</t>
+          <t>model_2_2_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9565163386244355</v>
+        <v>0.9132990403660177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7446013426171824</v>
+        <v>0.745443203076923</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7682520333370193</v>
+        <v>0.8460948396071083</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9765247658579013</v>
+        <v>0.9222958963530371</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9381203686715036</v>
+        <v>0.9096609153225341</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824916005134583</v>
+        <v>0.3638653457164764</v>
       </c>
       <c r="H25" t="n">
-        <v>1.707851886749268</v>
+        <v>1.702222466468811</v>
       </c>
       <c r="I25" t="n">
-        <v>1.048301935195923</v>
+        <v>0.91827392578125</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09135769307613373</v>
+        <v>0.8700148463249207</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5698297619819641</v>
+        <v>0.8941445350646973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_24</t>
+          <t>model_2_2_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9563739483895817</v>
+        <v>0.9089637678226733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7445544747597186</v>
+        <v>0.7440938742559443</v>
       </c>
       <c r="D26" t="n">
-        <v>0.767394950592762</v>
+        <v>0.8460563397270204</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9765167119836636</v>
+        <v>0.9222879297325011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9379081496062907</v>
+        <v>0.9096448039290594</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1830891966819763</v>
+        <v>0.3820596039295197</v>
       </c>
       <c r="H26" t="n">
-        <v>1.708165407180786</v>
+        <v>1.71124541759491</v>
       </c>
       <c r="I26" t="n">
-        <v>1.052178978919983</v>
+        <v>0.9185036420822144</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09138903766870499</v>
+        <v>0.8701039552688599</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5717840194702148</v>
+        <v>0.8943040370941162</v>
       </c>
     </row>
   </sheetData>
